--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vidhya\Downloads\MarsFramework\MarsFramework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aswin\Desktop\Projects\marsframework\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA428059-39C0-4B90-8BCF-7E49202B9138}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395CA946-0B50-461A-BF40-441D473C106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
     <sheet name="SignIn" sheetId="1" r:id="rId2"/>
-    <sheet name="Profile" sheetId="2" r:id="rId3"/>
+    <sheet name="ShareSkill" sheetId="2" r:id="rId3"/>
+    <sheet name="ManageListing" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Url</t>
   </si>
@@ -33,39 +34,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>http://www.skillswap.pro/Home</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Automation Testing</t>
-  </si>
-  <si>
-    <t>University</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>ISTQB</t>
-  </si>
-  <si>
-    <t>CertifiedFrom</t>
-  </si>
-  <si>
-    <t>ANZTB</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -78,9 +46,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -93,38 +58,71 @@
     <t>ConfirmPswd</t>
   </si>
   <si>
-    <t>Venugan</t>
-  </si>
-  <si>
-    <t>Vidhya</t>
-  </si>
-  <si>
-    <t>vidhyav9@gmail.com</t>
-  </si>
-  <si>
-    <t>Ithika2015</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Amrita School Of Engineering</t>
-  </si>
-  <si>
-    <t>B.Tech</t>
-  </si>
-  <si>
-    <t>3 years as Oracle Developer and 2 years as Project Management Operations Lead</t>
+    <t>aswini.sanal@outlook.com</t>
+  </si>
+  <si>
+    <t>Testing0123*</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/</t>
+  </si>
+  <si>
+    <t>Aswini</t>
+  </si>
+  <si>
+    <t>Sanal</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Selenuim Expert</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>#3#3</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>SkillExchangetag</t>
+  </si>
+  <si>
+    <t>9:00AM</t>
+  </si>
+  <si>
+    <t>5:00PM</t>
+  </si>
+  <si>
+    <t>#4#4</t>
+  </si>
+  <si>
+    <t>Coding class</t>
+  </si>
+  <si>
+    <t>Selenuim expert with Java,csharp,python</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +137,22 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +162,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,10 +194,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,7 +543,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,36 +557,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -598,20 +625,20 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" display="Test@123" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId2" display="Test@123" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{37EFEDE8-2709-4D6A-9507-C3824F31E180}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
@@ -623,15 +650,15 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
@@ -640,66 +667,96 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>8222021</v>
+      </c>
+      <c r="G2">
+        <v>10132021</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D6E225-E09A-42BC-A3D4-148F0DC7F014}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
         <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
